--- a/biology/Botanique/Pelazoneuron_ovatum/Pelazoneuron_ovatum.xlsx
+++ b/biology/Botanique/Pelazoneuron_ovatum/Pelazoneuron_ovatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelazoneuron ovatum est une espèce de plantes la famille des Thelypteridaceae.
-C'est une fougère originaire du Sud est des États-Unis et aux Bahamas[1]. En Géorgie, on la trouve dans la plaine côtière de l'Atlantique[2]. Elle est présente sur les berges des rivières et dans les canyons humides [3],[4],[5]. 
+C'est une fougère originaire du Sud est des États-Unis et aux Bahamas. En Géorgie, on la trouve dans la plaine côtière de l'Atlantique. Elle est présente sur les berges des rivières et dans les canyons humides . 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (27 janvier 2024)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 janvier 2024) :
 Pelazoneuron ovatum var. lindheimeri (C.Chr.) A.R.Sm.
 Pelazoneuron ovatum var. ovatum</t>
         </is>
@@ -544,11 +558,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Pelazoneuron ovatum (R.P.St.John) A.R.Sm. &amp; S.E.Fawc.[6].
-L'espèce a été initialement classée dans le genre Thelypteris sous le basionyme Thelypteris ovata R.P.St.John[6].
-Pelazoneuron ovatum a pour synonymes[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Pelazoneuron ovatum (R.P.St.John) A.R.Sm. &amp; S.E.Fawc..
+L'espèce a été initialement classée dans le genre Thelypteris sous le basionyme Thelypteris ovata R.P.St.John.
+Pelazoneuron ovatum a pour synonymes :
 Christella ovata (R.P.St.John) Á.Löve &amp; D.Löve
 Cyclosorus ovatus (R.P.St.John) Mazumdar &amp; R.Mukhop.
 Dryopteris normalis var. harperi C.Chr.
